--- a/biology/Microbiologie/Staphylococcus_xylosus/Staphylococcus_xylosus.xlsx
+++ b/biology/Microbiologie/Staphylococcus_xylosus/Staphylococcus_xylosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Staphylococcus xylosus une espèce de bactéries appartenant au genre Staphylococcus. Il s'agit d'une bactérie Gram-positive qui forme des grappes de cellules. Comme la plupart des espèces staphylococciques, il est coagulase-négatif et existe comme un commensal sur la peau des humains et des animaux et dans l'environnement[2]. Il semble être beaucoup plus fréquent chez les animaux que chez les humains. S. xylosus a été très occasionnellement identifié comme une cause d'infection humaine, mais dans certains cas il peut avoir été mal identifié. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Staphylococcus xylosus une espèce de bactéries appartenant au genre Staphylococcus. Il s'agit d'une bactérie Gram-positive qui forme des grappes de cellules. Comme la plupart des espèces staphylococciques, il est coagulase-négatif et existe comme un commensal sur la peau des humains et des animaux et dans l'environnement. Il semble être beaucoup plus fréquent chez les animaux que chez les humains. S. xylosus a été très occasionnellement identifié comme une cause d'infection humaine, mais dans certains cas il peut avoir été mal identifié. 
 Cette infection peut avoir bien d'autres formes que celle-ci.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Importance clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Staphylococcus xylosus est un membre de la flore cutanée des humains et d'autres animaux. Il a été associé à :
 Dermatite nasale chez les gerbilles
@@ -547,9 +561,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (11 novembre 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (11 novembre 2021) :
 non-classé Staphylococcus xylosus DMB3-Bh1
 non-classé Staphylococcus xylosus NJ</t>
         </is>
